--- a/Questions/Answer Writing.xlsx
+++ b/Questions/Answer Writing.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Studies\IAS Exam\GIT Workspace\IAS_Prepration\Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40B9408-0108-492A-87F0-3B77B86C79ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD802C0-4A22-4DDB-89D6-BB072A1A5698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="2148" windowWidth="12960" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sn</t>
   </si>
@@ -40,6 +43,12 @@
   </si>
   <si>
     <t xml:space="preserve">What do you understand by Left Wing Extremism(LWE)? Elucidate the major factors behind the occurrence of LWE and the governmental action to out the menace. </t>
+  </si>
+  <si>
+    <t>Enumerating the main reasons behind the rapid melting of glaciers around the world, explain its impact on globa; climate chaange and human life. Also, give some effective strategies to combat glacier melting.</t>
+  </si>
+  <si>
+    <t>Envinorment</t>
   </si>
 </sst>
 </file>
@@ -366,16 +375,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="97.5546875" customWidth="1"/>
+    <col min="3" max="3" width="168.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -400,7 +409,19 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
